--- a/因子解释.xlsx
+++ b/因子解释.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowHeight="16040"/>
   </bookViews>
   <sheets>
     <sheet name="因子含义解释" sheetId="2" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270">
   <si>
     <t>NO</t>
   </si>
@@ -88,7 +88,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> BIAS（乖离率）</t>
     </r>
@@ -98,7 +97,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>是用股价指数与移动平均线的比值关系，来描述股票价格与移动平均线之间的偏离程度。周期取20日</t>
     </r>
@@ -113,7 +111,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>B</t>
     </r>
@@ -123,7 +120,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>IAS = (CLOSE-MA(CLOSE,N))/MA(CLOSE,N)*100</t>
     </r>
@@ -147,7 +143,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>B</t>
     </r>
@@ -157,7 +152,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>LEV = (BE + PE + LD) / ME</t>
     </r>
@@ -181,7 +175,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>B</t>
     </r>
@@ -191,7 +184,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>P=1 / pe_lf</t>
     </r>
@@ -224,7 +216,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>O</t>
     </r>
@@ -234,7 +225,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>CFP = 1 / pcf_ocfttm</t>
     </r>
@@ -282,7 +272,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>D</t>
     </r>
@@ -292,7 +281,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>P = dividendyield2</t>
     </r>
@@ -319,7 +307,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>DTOA</t>
     </r>
@@ -329,7 +316,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> = TL / TA</t>
     </r>
@@ -350,7 +336,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>EP</t>
     </r>
@@ -360,7 +345,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>=1</t>
     </r>
@@ -370,7 +354,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -380,7 +363,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>/</t>
     </r>
@@ -390,7 +372,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> pe_ttm</t>
     </r>
@@ -402,7 +383,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>1.pe_ttm：市盈率pe(ttm)=</t>
     </r>
@@ -412,7 +392,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>最新每股市价为最近</t>
     </r>
@@ -422,7 +401,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>12</t>
     </r>
@@ -432,7 +410,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">个月每股收益的倍数。
 【算法】
@@ -444,7 +421,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">        </t>
     </r>
@@ -454,7 +430,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>总市值</t>
     </r>
@@ -464,7 +439,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>2</t>
     </r>
@@ -474,7 +448,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>／</t>
     </r>
@@ -484,7 +457,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>(</t>
     </r>
@@ -494,7 +466,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>归属母公司股东的净利润</t>
     </r>
@@ -504,7 +475,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">TTM) 
         </t>
@@ -515,7 +485,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">注：
 </t>
@@ -526,7 +495,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">        1</t>
     </r>
@@ -536,7 +504,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>、总市值</t>
     </r>
@@ -546,7 +513,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>2=</t>
     </r>
@@ -556,7 +522,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>指定日证券收盘价</t>
     </r>
@@ -566,7 +531,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>*</t>
     </r>
@@ -576,7 +540,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">指定日当日总股本
 </t>
@@ -587,7 +550,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">        2</t>
     </r>
@@ -597,7 +559,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>、</t>
     </r>
@@ -607,7 +568,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>B</t>
     </r>
@@ -617,7 +577,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>股涉及汇率转换</t>
     </r>
@@ -627,7 +586,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
         </t>
@@ -638,7 +596,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>指数算法：∑</t>
     </r>
@@ -648,7 +605,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>(</t>
     </r>
@@ -658,7 +614,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>成分股</t>
     </r>
@@ -668,7 +623,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>,</t>
     </r>
@@ -678,7 +632,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>总市值</t>
     </r>
@@ -688,7 +641,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>2)/</t>
     </r>
@@ -698,7 +650,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>∑</t>
     </r>
@@ -708,7 +659,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>(</t>
     </r>
@@ -718,7 +668,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>成分股</t>
     </r>
@@ -728,7 +677,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>,</t>
     </r>
@@ -738,7 +686,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>净利润</t>
     </r>
@@ -748,7 +695,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>(TTM))</t>
     </r>
@@ -778,7 +724,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>G</t>
     </r>
@@ -788,7 +733,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>/PE = profit_ttm_G / pe_ttm</t>
     </r>
@@ -821,7 +765,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>ln</t>
     </r>
@@ -831,7 +774,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>_capital=ln(mkt_cap_float)</t>
     </r>
@@ -866,7 +808,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>MLEV</t>
     </r>
@@ -876,7 +817,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> = (ME + PE + LD) / ME</t>
     </r>
@@ -926,7 +866,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>N</t>
     </r>
@@ -936,7 +875,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>CFP=1 / pcf_ncfttm</t>
     </r>
@@ -948,7 +886,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>1.</t>
     </r>
@@ -958,7 +895,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> pcf_ncfttm：市现率</t>
     </r>
@@ -968,7 +904,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>pcf(</t>
     </r>
@@ -978,7 +913,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>现金净流量</t>
     </r>
@@ -988,7 +922,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>ttm)=</t>
     </r>
@@ -998,7 +931,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>每股市价为过去12个月每股现金净流量的倍数。
 【算法】
@@ -1021,7 +953,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>1.pcf_ocfttm：市现率pcf(经营现金流ttm)=</t>
     </r>
@@ -1031,7 +962,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>每股市价为过去12个月每股经营性现金流的倍数。
 【算法】
@@ -1077,7 +1007,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">PSY = </t>
     </r>
@@ -1087,7 +1016,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>COUNT(CLOSE&gt;</t>
     </r>
@@ -1097,7 +1025,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>LAST_</t>
     </r>
@@ -1107,7 +1034,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>CLOSE,</t>
     </r>
@@ -1117,7 +1043,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>N</t>
     </r>
@@ -1127,7 +1052,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>)/</t>
     </r>
@@ -1137,7 +1061,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>N</t>
     </r>
@@ -1147,7 +1070,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>*100</t>
     </r>
@@ -1168,7 +1090,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 1.qfa_yoyprofit：</t>
     </r>
@@ -1178,7 +1099,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">单季度.净利润同比增长率
 【算法】
@@ -1211,7 +1131,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>1.qfa_roa：单季度.</t>
     </r>
@@ -1221,7 +1140,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>总资产净利率</t>
     </r>
@@ -1231,7 +1149,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">roa
 </t>
@@ -1242,7 +1159,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>旧准则：</t>
     </r>
@@ -1252,7 +1168,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1262,7 +1177,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>净利润</t>
     </r>
@@ -1272,7 +1186,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>+</t>
     </r>
@@ -1282,7 +1195,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>少数股东损益</t>
     </r>
@@ -1292,7 +1204,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>)*2</t>
     </r>
@@ -1302,7 +1213,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>／</t>
     </r>
@@ -1312,7 +1222,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1322,7 +1231,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>期初总资产</t>
     </r>
@@ -1332,7 +1240,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>+</t>
     </r>
@@ -1342,7 +1249,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>期末总资产</t>
     </r>
@@ -1352,7 +1258,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">)                                                                                                                                                                                                                   </t>
     </r>
@@ -1362,7 +1267,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>新准则：净利润</t>
     </r>
@@ -1372,7 +1276,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>*2</t>
     </r>
@@ -1382,7 +1285,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>／</t>
     </r>
@@ -1392,7 +1294,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1402,7 +1303,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>期初总资产</t>
     </r>
@@ -1412,7 +1312,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>+</t>
     </r>
@@ -1422,7 +1321,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>期末总资产</t>
     </r>
@@ -1432,7 +1330,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">)
 </t>
@@ -1443,7 +1340,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">【算法】
 </t>
@@ -1454,7 +1350,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">        </t>
     </r>
@@ -1464,7 +1359,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">股票算法：
 </t>
@@ -1475,7 +1369,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">        </t>
     </r>
@@ -1485,7 +1378,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>旧准则：</t>
     </r>
@@ -1495,7 +1387,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1505,7 +1396,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>净利润</t>
     </r>
@@ -1515,7 +1405,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>+</t>
     </r>
@@ -1525,7 +1414,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>少数股东损益</t>
     </r>
@@ -1535,7 +1423,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>)*2</t>
     </r>
@@ -1545,7 +1432,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>／</t>
     </r>
@@ -1555,7 +1441,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1565,7 +1450,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>期初总资产</t>
     </r>
@@ -1575,7 +1459,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>+</t>
     </r>
@@ -1585,7 +1468,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>期末总资产</t>
     </r>
@@ -1595,7 +1477,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">)
         </t>
@@ -1606,7 +1487,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>新准则：净利润</t>
     </r>
@@ -1616,7 +1496,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>*2</t>
     </r>
@@ -1626,7 +1505,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>／</t>
     </r>
@@ -1636,7 +1514,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>(</t>
     </r>
@@ -1646,7 +1523,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>期初总资产</t>
     </r>
@@ -1656,7 +1532,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>+</t>
     </r>
@@ -1666,7 +1541,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>期末总资产</t>
     </r>
@@ -1676,7 +1550,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">)
         </t>
@@ -1687,7 +1560,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">指数算法：
 </t>
@@ -1698,7 +1570,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">        2*</t>
     </r>
@@ -1708,7 +1579,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>∑（成份股当年单季度净利润）／∑（成份股期初总资产</t>
     </r>
@@ -1718,7 +1588,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>+</t>
     </r>
@@ -1728,7 +1597,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>期末总资产</t>
     </r>
@@ -1738,7 +1606,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">)*100%                                                                                                                                                                         </t>
     </r>
@@ -1756,7 +1623,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>ROA_ttm=roa2_ttm2</t>
     </r>
@@ -1766,7 +1632,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>_m</t>
     </r>
@@ -1778,7 +1643,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>1</t>
     </r>
@@ -1788,7 +1652,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>.roa2_ttm2：</t>
     </r>
@@ -1798,7 +1661,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>总资产报酬率(ttm)
 【算法】
@@ -1837,7 +1699,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>ROE</t>
     </r>
@@ -1847,7 +1708,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>_q=</t>
     </r>
@@ -1857,7 +1717,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>qfa_roe_m</t>
     </r>
@@ -1878,7 +1737,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>ROE_ttm=roe_ttm2</t>
     </r>
@@ -1888,7 +1746,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>_m</t>
     </r>
@@ -1900,7 +1757,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>1</t>
     </r>
@@ -1910,7 +1766,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>.roe_ttm2：</t>
     </r>
@@ -1920,7 +1775,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>净资产收益率(ttm)
 【算法】
@@ -1953,7 +1807,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>S</t>
     </r>
@@ -1963,7 +1816,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>P=1 / ps_ttm</t>
     </r>
@@ -1975,7 +1827,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 1.ps_ttm：市销率ps(ttm)=</t>
     </r>
@@ -1985,7 +1836,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>每股市价为过去12个月每股营业收入的倍数。
 【算法】
@@ -2085,7 +1935,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>assetturnover_ttm=turnover_ttm</t>
     </r>
@@ -2095,7 +1944,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>_m</t>
     </r>
@@ -2107,7 +1955,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>1</t>
     </r>
@@ -2117,7 +1964,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>.turnover_ttm：总资产周转率(ttm)
 【算法】
@@ -2240,7 +2086,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> 1.val_pe_deducted_ttm：市盈率pe(ttm,扣除非经常性损益)</t>
     </r>
@@ -2250,7 +2095,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
 【算法】
@@ -2262,7 +2106,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>(TTM)=</t>
     </r>
@@ -2272,7 +2115,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>总市值</t>
     </r>
@@ -2282,7 +2124,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>2/</t>
     </r>
@@ -2292,7 +2133,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>前推</t>
     </r>
@@ -2302,7 +2142,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>12</t>
     </r>
@@ -2312,7 +2151,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">个月扣除非经常性损益后的净利润
 </t>
@@ -2323,7 +2161,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">        </t>
     </r>
@@ -2333,7 +2170,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>注：扣除非经常性损益后的净利润</t>
     </r>
@@ -2343,7 +2179,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>(TTM)</t>
     </r>
@@ -2353,7 +2188,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">根据报告期“扣除非经常性损益后的净利润”计算
 </t>
@@ -2364,7 +2198,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">            (1)</t>
     </r>
@@ -2374,7 +2207,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>最新报告期是年报，则</t>
     </r>
@@ -2384,7 +2216,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>TTM=</t>
     </r>
@@ -2394,7 +2225,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">年报；
 </t>
@@ -2405,7 +2235,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">            (2)</t>
     </r>
@@ -2415,7 +2244,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>最新报告期不是年报，则</t>
     </r>
@@ -2425,7 +2253,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>TTM=</t>
     </r>
@@ -2435,7 +2262,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>本期</t>
     </r>
@@ -2445,7 +2271,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>+(</t>
     </r>
@@ -2455,7 +2280,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>上年年报</t>
     </r>
@@ -2465,7 +2289,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>-</t>
     </r>
@@ -2475,7 +2298,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>上年同期</t>
     </r>
@@ -2485,7 +2307,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2495,7 +2316,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>，如果本期、上年年报、上年同期存在空值，则不计算，返回空值。</t>
     </r>
@@ -2519,7 +2339,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>exp_wgt_return_N</t>
     </r>
@@ -2529,7 +2348,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>m</t>
     </r>
@@ -2539,7 +2357,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> = ∑(turnover_rate_d * exp(-x_i/4N) * return_d) / N</t>
     </r>
@@ -2575,7 +2392,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>1</t>
     </r>
@@ -2585,7 +2401,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>.assetstoequity：</t>
     </r>
@@ -2595,7 +2410,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>权益乘数
 权益乘数表示企业的负债程度，权益乘数越大，企业负债程度越高。
@@ -2619,7 +2433,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>1.qfa_grossprofitmargin：</t>
     </r>
@@ -2629,7 +2442,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>单季度.销售毛利率
 旧准则：毛利／主营业务收入净额 新准则：毛利／营业收入
@@ -2646,7 +2458,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">                                                                                                                                                                                                                  </t>
     </r>
@@ -2664,7 +2475,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>grossprofitmargin_ttm=grossprofitmargin_</t>
     </r>
@@ -2674,7 +2484,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>ttm2_m</t>
     </r>
@@ -2706,7 +2515,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>1.holder_avgpct：</t>
     </r>
@@ -2716,7 +2524,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>户均持股比例
 【算法】
@@ -2728,7 +2535,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2738,7 +2544,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>户均持股比例</t>
     </r>
@@ -2748,7 +2553,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>=[(</t>
     </r>
@@ -2758,7 +2562,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>流通股合计／股东户数</t>
     </r>
@@ -2768,7 +2571,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2778,7 +2580,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>／流通股合计</t>
     </r>
@@ -2788,7 +2589,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>]*1000</t>
     </r>
@@ -2798,7 +2598,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>‰；
 按总股本计算：</t>
@@ -2809,7 +2608,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -2819,7 +2617,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>户均持股比例</t>
     </r>
@@ -2829,7 +2626,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>=[(</t>
     </r>
@@ -2839,7 +2635,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>总股本／股东户数</t>
     </r>
@@ -2849,7 +2644,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>)</t>
     </r>
@@ -2859,7 +2653,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>／总股本</t>
     </r>
@@ -2869,7 +2662,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>]*1000</t>
     </r>
@@ -2879,7 +2671,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>‰</t>
     </r>
@@ -2889,7 +2680,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">                                                                                                                                                                                                       注：当holder_avgpct存在缺失值较多时，直接以1/holder_num作为补充值填充。                                                                                                                                                                                                                                                                                                                                                                                                                                         2.holder_num：  股东户数:上市公司在指定交易日总股东户数
 【算法】
@@ -2909,7 +2699,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>T</t>
     </r>
@@ -2919,7 +2708,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>=504日，L=21日，rt为股票日收益率，rft为无风险收益率，wt为半衰期为126日的指数权重</t>
     </r>
@@ -3011,7 +2799,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>1.deductedprofit_ttm：扣除非经常性损益后的净利润(ttm)
 前推12个月扣除非经常性损益后的净利润
@@ -3024,7 +2811,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">个月扣除非经常性损益后的净利润算法：根据报告期“扣除非经常性损益后的净利润”计算：
 </t>
@@ -3035,7 +2821,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">         (1)</t>
     </r>
@@ -3045,7 +2830,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>最新报告期是年报，则</t>
     </r>
@@ -3055,7 +2839,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>TTM=</t>
     </r>
@@ -3065,7 +2848,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">年报；
 </t>
@@ -3076,7 +2858,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">         (2)</t>
     </r>
@@ -3086,7 +2867,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>最新报告期不是年报，则</t>
     </r>
@@ -3096,7 +2876,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>TTM=</t>
     </r>
@@ -3106,7 +2885,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>本期</t>
     </r>
@@ -3116,7 +2894,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>+(</t>
     </r>
@@ -3126,7 +2903,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>上年年报</t>
     </r>
@@ -3136,7 +2912,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>-</t>
     </r>
@@ -3146,7 +2921,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>上年同期</t>
     </r>
@@ -3156,7 +2930,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>)</t>
     </r>
@@ -3166,7 +2939,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">，如果本期、上年年报、上年同期存在空值，则不计算，返回空值。                                                                                                                                                                                                                              2.or_ttm：营业收入(ttm):前推12个月营业收入
 【算法】
@@ -3179,7 +2951,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">        </t>
     </r>
@@ -3189,7 +2960,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">根据报告期“营业收入”计算：
 </t>
@@ -3200,7 +2970,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">        (1)</t>
     </r>
@@ -3210,7 +2979,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>最新报告期是年报，则</t>
     </r>
@@ -3220,7 +2988,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>TTM=</t>
     </r>
@@ -3230,7 +2997,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">年报；
 </t>
@@ -3241,7 +3007,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">        (2)</t>
     </r>
@@ -3251,7 +3016,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>最新报告期不是年报，则</t>
     </r>
@@ -3261,7 +3025,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>TTM=</t>
     </r>
@@ -3271,7 +3034,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>本期</t>
     </r>
@@ -3281,7 +3043,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>+(</t>
     </r>
@@ -3291,7 +3052,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>上年年报</t>
     </r>
@@ -3301,7 +3061,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>-</t>
     </r>
@@ -3311,7 +3070,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>上年同期合并数</t>
     </r>
@@ -3321,7 +3079,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>)</t>
     </r>
@@ -3331,7 +3088,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>，如果本期、上年年报、上年同期</t>
     </r>
@@ -3341,7 +3097,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>(</t>
     </r>
@@ -3351,7 +3106,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>合并数</t>
     </r>
@@ -3361,7 +3115,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>)</t>
     </r>
@@ -3371,7 +3124,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">存在空值，则不计算，返回空值。
 </t>
@@ -3382,7 +3134,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">        (3)</t>
     </r>
@@ -3392,7 +3143,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">报告期“营业收入”参见利润表指标说明。
 </t>
@@ -3403,7 +3153,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">        </t>
     </r>
@@ -3413,7 +3162,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">另外，交易日参数匹配的为最新报告期的披露日期。
 </t>
@@ -3424,7 +3172,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">        </t>
     </r>
@@ -3434,7 +3181,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">指数算法：
 </t>
@@ -3445,7 +3191,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">        </t>
     </r>
@@ -3455,7 +3200,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>∑（成份股营业收入</t>
     </r>
@@ -3465,7 +3209,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>(TTM)</t>
     </r>
@@ -3475,7 +3218,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>）</t>
     </r>
@@ -3532,7 +3274,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>tu</t>
     </r>
@@ -3542,7 +3283,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>rn_Nm = ∑(turnover_rate_d) / N</t>
     </r>
@@ -3569,7 +3309,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>w</t>
     </r>
@@ -3579,7 +3318,6 @@
         <color theme="1"/>
         <rFont val="等线"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
       <t>gt_return_Nm = ∑(turnover_rate_d * return_d) /N</t>
     </r>
@@ -3598,10 +3336,10 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3611,35 +3349,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3652,11 +3362,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3684,23 +3417,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3709,6 +3435,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3723,30 +3456,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="等线"/>
@@ -3755,7 +3464,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3770,19 +3501,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3794,49 +3513,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3848,91 +3531,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3950,7 +3549,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3961,6 +3692,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -3975,6 +3715,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3994,35 +3743,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -4034,6 +3754,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4056,282 +3787,282 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="51" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="52">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="52" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="50" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="常规 5" xfId="1"/>
+    <cellStyle name="常规 4" xfId="2"/>
+    <cellStyle name="常规 2" xfId="3"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="4" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="5" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="6" builtinId="41"/>
+    <cellStyle name="输入" xfId="7" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="8" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="9" builtinId="38"/>
+    <cellStyle name="货币" xfId="10" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="11" builtinId="37"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="13" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="14" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="15" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="16" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="17" builtinId="44"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="19" builtinId="29"/>
+    <cellStyle name="适中" xfId="20" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="21" builtinId="46"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="23" builtinId="30"/>
+    <cellStyle name="汇总" xfId="24" builtinId="25"/>
+    <cellStyle name="差" xfId="25" builtinId="27"/>
     <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 3" xfId="50"/>
-    <cellStyle name="常规 4" xfId="51"/>
-    <cellStyle name="常规 5" xfId="52"/>
+    <cellStyle name="输出" xfId="27" builtinId="21"/>
+    <cellStyle name="标题 1" xfId="28" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="29" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="31" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="32" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="33" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="34" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="35" builtinId="9"/>
+    <cellStyle name="标题" xfId="36" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="37" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="38" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="39" builtinId="40"/>
+    <cellStyle name="注释" xfId="40" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="41" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="42" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="43" builtinId="51"/>
+    <cellStyle name="超链接" xfId="44" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="45" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="46" builtinId="17"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
+    <cellStyle name="标题 3" xfId="48" builtinId="18"/>
+    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="50" builtinId="31"/>
+    <cellStyle name="常规 3" xfId="51"/>
+    <cellStyle name="链接单元格" xfId="52" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4372,8 +4103,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8990965" y="13409930"/>
-          <a:ext cx="5121275" cy="995680"/>
+          <a:off x="8445500" y="12285980"/>
+          <a:ext cx="4879340" cy="995680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4410,8 +4141,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8181975" y="34712275"/>
-          <a:ext cx="3658870" cy="452755"/>
+          <a:off x="7636510" y="32957135"/>
+          <a:ext cx="3416935" cy="363855"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4448,8 +4179,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7820025" y="35085655"/>
-          <a:ext cx="3531870" cy="1073785"/>
+          <a:off x="7512050" y="33284795"/>
+          <a:ext cx="3294380" cy="1073785"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4486,8 +4217,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8479155" y="167640"/>
-          <a:ext cx="2399665" cy="384175"/>
+          <a:off x="7933690" y="165100"/>
+          <a:ext cx="2399665" cy="488950"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4524,8 +4255,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7797165" y="28740100"/>
-          <a:ext cx="2541270" cy="694690"/>
+          <a:off x="7489190" y="26854150"/>
+          <a:ext cx="2303780" cy="694690"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4562,8 +4293,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7820025" y="29403040"/>
-          <a:ext cx="3021330" cy="657225"/>
+          <a:off x="7512050" y="27517090"/>
+          <a:ext cx="2783840" cy="657225"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4600,8 +4331,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7812405" y="28148915"/>
-          <a:ext cx="3120390" cy="636905"/>
+          <a:off x="7504430" y="26351230"/>
+          <a:ext cx="2882900" cy="474345"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4638,8 +4369,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8235315" y="45679995"/>
-          <a:ext cx="3063240" cy="750570"/>
+          <a:off x="7689850" y="42769790"/>
+          <a:ext cx="3063240" cy="515620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4907,15 +4638,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="G40" sqref="A39:G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.4" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="8.875" style="2"/>
     <col min="2" max="2" width="26.25" style="2" customWidth="1"/>
@@ -4927,7 +4658,7 @@
     <col min="8" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" ht="13" spans="1:7">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -4940,7 +4671,7 @@
       <c r="D1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="13" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="3" t="s">
@@ -4950,32 +4681,32 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="28.5" spans="1:7">
+    <row r="2" ht="38" spans="1:7">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="7"/>
+      <c r="F2" s="13"/>
       <c r="G2" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" ht="42.75" spans="1:7">
+    <row r="3" ht="38" spans="1:7">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="7" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -4984,76 +4715,76 @@
       <c r="D3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" ht="28.5" spans="1:7">
+    <row r="4" ht="25" spans="1:7">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="13" t="s">
         <v>15</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" ht="42.75" spans="1:7">
+    <row r="5" ht="38" spans="1:7">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="13" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" ht="13" spans="1:7">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="13" t="s">
         <v>27</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -5063,284 +4794,284 @@
         <v>29</v>
       </c>
     </row>
-    <row r="7" ht="99.75" spans="1:7">
+    <row r="7" ht="87" spans="1:7">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="14" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="13" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:7">
+    <row r="8" s="1" customFormat="1" ht="13" spans="1:7">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="13" t="s">
+      <c r="D8" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:7">
+    <row r="9" s="1" customFormat="1" ht="13" spans="1:7">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="13" t="s">
+      <c r="D9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="F9" s="16" t="s">
+      <c r="F9" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" ht="13" spans="1:7">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="13" t="s">
         <v>44</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" ht="13" spans="1:7">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="13" t="s">
         <v>48</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" ht="114" spans="1:7">
+    <row r="12" ht="112" spans="1:7">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="E12" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="F12" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" ht="13" spans="1:7">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="E13" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="F13" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="13" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="14" ht="99.75" spans="1:7">
+    <row r="14" ht="87" spans="1:7">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="F14" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="G14" s="13" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" s="1" customFormat="1" spans="1:7">
+    <row r="15" s="1" customFormat="1" ht="13" spans="1:7">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="F15" s="16" t="s">
+      <c r="F15" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="16" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="16" ht="156.75" spans="1:7">
+    <row r="16" ht="137" spans="1:7">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="F16" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="G16" s="13" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="17" ht="85.5" spans="1:7">
+    <row r="17" ht="75" spans="1:7">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="E17" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="F17" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="G17" s="13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" ht="57" spans="1:6">
+    <row r="18" ht="50" spans="1:6">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="F18" s="13" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" ht="13" spans="1:7">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="7" t="s">
         <v>78</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -5349,7 +5080,7 @@
       <c r="D19" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="13" t="s">
         <v>79</v>
       </c>
       <c r="F19" s="6" t="s">
@@ -5359,42 +5090,42 @@
         <v>81</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" ht="13" spans="1:7">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-    </row>
-    <row r="21" ht="156.75" spans="1:7">
+      <c r="F20" s="13"/>
+      <c r="G20" s="13"/>
+    </row>
+    <row r="21" ht="149" spans="1:7">
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="C21" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="F21" s="7" t="s">
+      <c r="F21" s="13" t="s">
         <v>86</v>
       </c>
       <c r="G21" s="18" t="s">
@@ -5405,294 +5136,294 @@
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-    </row>
-    <row r="23" ht="99.75" spans="1:7">
+      <c r="F22" s="13"/>
+      <c r="G22" s="13"/>
+    </row>
+    <row r="23" ht="87" spans="1:7">
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="14" t="s">
         <v>91</v>
       </c>
       <c r="F23" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="13" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="24" ht="114" spans="1:7">
+    <row r="24" ht="100" spans="1:7">
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C24" s="9" t="s">
+      <c r="C24" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E24" s="11" t="s">
+      <c r="E24" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="F24" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="25" ht="99.75" spans="1:7">
+    <row r="25" ht="100" spans="1:7">
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="11" t="s">
+      <c r="E25" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F25" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G25" s="13" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="26" ht="42.75" spans="1:7">
+    <row r="26" ht="38" spans="1:7">
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="C26" s="9" t="s">
+      <c r="C26" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="F26" s="13" t="s">
         <v>104</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="27" ht="171" spans="1:7">
+    <row r="27" ht="174" spans="1:7">
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="11" t="s">
+      <c r="E27" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="F27" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="G27" s="13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="28" ht="128.25" spans="1:7">
+    <row r="28" ht="124" spans="1:7">
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C28" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E28" s="11" t="s">
+      <c r="E28" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="F28" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="G28" s="13" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="29" ht="42.75" spans="1:7">
+    <row r="29" ht="38" spans="1:7">
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="8" t="s">
+      <c r="B29" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E29" s="11" t="s">
+      <c r="E29" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="F29" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="G29" s="13" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="30" ht="171" spans="1:7">
+    <row r="30" ht="174" spans="1:7">
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E30" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="F30" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="G30" s="7" t="s">
+      <c r="G30" s="13" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" ht="13" spans="1:7">
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="F31" s="13" t="s">
         <v>125</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="32" ht="42.75" spans="1:7">
+    <row r="32" ht="38" spans="1:7">
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C32" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E32" s="11" t="s">
+      <c r="E32" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="F32" s="7" t="s">
+      <c r="F32" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="G32" s="13" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="33" ht="57" spans="1:7">
+    <row r="33" ht="50" spans="1:7">
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="7" t="s">
+      <c r="E33" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="F33" s="7" t="s">
+      <c r="F33" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="G33" s="7" t="s">
+      <c r="G33" s="13" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="34" ht="99.75" spans="1:7">
+    <row r="34" ht="87" spans="1:7">
       <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B34" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E34" s="11" t="s">
+      <c r="E34" s="14" t="s">
         <v>136</v>
       </c>
       <c r="F34" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="G34" s="13" t="s">
         <v>138</v>
       </c>
     </row>
@@ -5700,7 +5431,7 @@
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="8" t="s">
+      <c r="B35" s="7" t="s">
         <v>139</v>
       </c>
       <c r="C35" s="6" t="s">
@@ -5720,7 +5451,7 @@
       <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>143</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -5729,7 +5460,7 @@
       <c r="D36" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E36" s="7" t="s">
+      <c r="E36" s="13" t="s">
         <v>144</v>
       </c>
       <c r="G36" s="6" t="s">
@@ -5740,7 +5471,7 @@
       <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="8" t="s">
+      <c r="B37" s="7" t="s">
         <v>146</v>
       </c>
       <c r="C37" s="6" t="s">
@@ -5756,72 +5487,72 @@
         <v>148</v>
       </c>
     </row>
-    <row r="38" ht="185.25" spans="1:7">
+    <row r="38" ht="174" spans="1:7">
       <c r="A38" s="2">
         <v>37</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C38" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E38" s="11" t="s">
+      <c r="E38" s="14" t="s">
         <v>150</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="F38" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="G38" s="13" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="39" hidden="1" customHeight="1" spans="1:7">
+    <row r="39" ht="40" customHeight="1" spans="1:7">
       <c r="A39" s="2">
         <v>38</v>
       </c>
-      <c r="B39" s="8" t="s">
+      <c r="B39" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="E39" s="11" t="s">
+      <c r="E39" s="14" t="s">
         <v>155</v>
       </c>
-      <c r="F39" s="7" t="s">
+      <c r="F39" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="G39" s="13" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="40" ht="42.75" spans="1:7">
+    <row r="40" ht="38" spans="1:7">
       <c r="A40" s="2">
         <v>39</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C40" s="9" t="s">
+      <c r="C40" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="E40" s="11" t="s">
+      <c r="E40" s="14" t="s">
         <v>160</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="F40" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="G40" s="7" t="s">
+      <c r="G40" s="13" t="s">
         <v>162</v>
       </c>
     </row>
@@ -5829,37 +5560,37 @@
       <c r="A41" s="2">
         <v>40</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F41" s="7"/>
+      <c r="F41" s="13"/>
       <c r="G41" s="6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="42" ht="42.75" spans="1:7">
+    <row r="42" ht="38" spans="1:7">
       <c r="A42" s="2">
         <v>41</v>
       </c>
-      <c r="B42" s="8" t="s">
+      <c r="B42" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C42" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="7" t="s">
+      <c r="E42" s="13" t="s">
         <v>167</v>
       </c>
-      <c r="F42" s="7" t="s">
+      <c r="F42" s="13" t="s">
         <v>168</v>
       </c>
       <c r="G42" s="6" t="s">
@@ -5870,16 +5601,16 @@
       <c r="A43" s="2">
         <v>42</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B43" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="C43" s="9" t="s">
+      <c r="C43" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F43" s="7"/>
+      <c r="F43" s="13"/>
       <c r="G43" s="6" t="s">
         <v>171</v>
       </c>
@@ -5888,40 +5619,40 @@
       <c r="A44" s="2">
         <v>43</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="C44" s="9" t="s">
+      <c r="C44" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F44" s="7"/>
+      <c r="F44" s="13"/>
       <c r="G44" s="6" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="45" ht="57" spans="1:7">
+    <row r="45" ht="50" spans="1:7">
       <c r="A45" s="2">
         <v>44</v>
       </c>
-      <c r="B45" s="8" t="s">
+      <c r="B45" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="C45" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E45" s="11" t="s">
+      <c r="E45" s="14" t="s">
         <v>175</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="F45" s="13" t="s">
         <v>176</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="G45" s="13" t="s">
         <v>177</v>
       </c>
     </row>
@@ -5929,112 +5660,112 @@
       <c r="A46" s="2">
         <v>45</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B46" s="7" t="s">
         <v>178</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="C46" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E46" s="11" t="s">
+      <c r="E46" s="14" t="s">
         <v>179</v>
       </c>
-      <c r="F46" s="7"/>
-      <c r="G46" s="7" t="s">
+      <c r="F46" s="13"/>
+      <c r="G46" s="13" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="47" ht="114" spans="1:7">
+    <row r="47" ht="100" spans="1:7">
       <c r="A47" s="2">
         <v>46</v>
       </c>
-      <c r="B47" s="8" t="s">
+      <c r="B47" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="C47" s="9" t="s">
+      <c r="C47" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E47" s="11" t="s">
+      <c r="E47" s="14" t="s">
         <v>182</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="F47" s="13" t="s">
         <v>183</v>
       </c>
-      <c r="G47" s="7" t="s">
+      <c r="G47" s="13" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="48" ht="28.5" spans="1:7">
+    <row r="48" ht="25" spans="1:7">
       <c r="A48" s="2">
         <v>47</v>
       </c>
-      <c r="B48" s="8" t="s">
+      <c r="B48" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="C48" s="10" t="s">
+      <c r="C48" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E48" s="7" t="s">
+      <c r="E48" s="13" t="s">
         <v>186</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="F48" s="13" t="s">
         <v>187</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="49" ht="57" spans="1:7">
+    <row r="49" ht="50" spans="1:7">
       <c r="A49" s="2">
         <v>48</v>
       </c>
-      <c r="B49" s="8" t="s">
+      <c r="B49" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="C49" s="9" t="s">
+      <c r="C49" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E49" s="11" t="s">
+      <c r="E49" s="14" t="s">
         <v>189</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="F49" s="13" t="s">
         <v>190</v>
       </c>
-      <c r="G49" s="7" t="s">
+      <c r="G49" s="13" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="50" ht="114" spans="1:7">
+    <row r="50" ht="100" spans="1:7">
       <c r="A50" s="2">
         <v>49</v>
       </c>
-      <c r="B50" s="8" t="s">
+      <c r="B50" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="C50" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="11" t="s">
+      <c r="E50" s="14" t="s">
         <v>193</v>
       </c>
       <c r="F50" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="G50" s="7" t="s">
+      <c r="G50" s="13" t="s">
         <v>195</v>
       </c>
     </row>
@@ -6042,37 +5773,37 @@
       <c r="A51" s="2">
         <v>50</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="C51" s="9" t="s">
+      <c r="C51" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="D51" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F51" s="7"/>
+      <c r="F51" s="13"/>
       <c r="G51" s="6" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="52" ht="42.75" spans="1:7">
+    <row r="52" ht="38" spans="1:7">
       <c r="A52" s="2">
         <v>51</v>
       </c>
-      <c r="B52" s="8" t="s">
+      <c r="B52" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="C52" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E52" s="11" t="s">
+      <c r="E52" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="F52" s="13" t="s">
         <v>200</v>
       </c>
       <c r="G52" s="6" t="s">
@@ -6083,16 +5814,16 @@
       <c r="A53" s="2">
         <v>52</v>
       </c>
-      <c r="B53" s="8" t="s">
+      <c r="B53" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="C53" s="9" t="s">
+      <c r="C53" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F53" s="7"/>
+      <c r="F53" s="13"/>
       <c r="G53" s="6" t="s">
         <v>203</v>
       </c>
@@ -6101,109 +5832,109 @@
       <c r="A54" s="2">
         <v>53</v>
       </c>
-      <c r="B54" s="8" t="s">
+      <c r="B54" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C54" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F54" s="7"/>
+      <c r="F54" s="13"/>
       <c r="G54" s="6" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="55" ht="57" spans="1:7">
+    <row r="55" ht="50" spans="1:7">
       <c r="A55" s="2">
         <v>54</v>
       </c>
-      <c r="B55" s="8" t="s">
+      <c r="B55" s="7" t="s">
         <v>206</v>
       </c>
-      <c r="C55" s="9" t="s">
+      <c r="C55" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E55" s="11" t="s">
+      <c r="E55" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="F55" s="7" t="s">
+      <c r="F55" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="G55" s="7" t="s">
+      <c r="G55" s="13" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="56" ht="114" spans="1:7">
+    <row r="56" ht="100" spans="1:7">
       <c r="A56" s="2">
         <v>55</v>
       </c>
-      <c r="B56" s="8" t="s">
+      <c r="B56" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="C56" s="9" t="s">
+      <c r="C56" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E56" s="11" t="s">
+      <c r="E56" s="14" t="s">
         <v>211</v>
       </c>
-      <c r="F56" s="7" t="s">
+      <c r="F56" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="G56" s="7" t="s">
+      <c r="G56" s="13" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="57" ht="42.75" spans="1:7">
+    <row r="57" ht="38" spans="1:7">
       <c r="A57" s="2">
         <v>56</v>
       </c>
-      <c r="B57" s="8" t="s">
+      <c r="B57" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="C57" s="9" t="s">
+      <c r="C57" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="D57" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E57" s="11" t="s">
+      <c r="E57" s="14" t="s">
         <v>215</v>
       </c>
-      <c r="F57" s="7" t="s">
+      <c r="F57" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="G57" s="7" t="s">
+      <c r="G57" s="13" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="58" ht="142.5" spans="1:7">
+    <row r="58" ht="124" spans="1:7">
       <c r="A58" s="2">
         <v>57</v>
       </c>
-      <c r="B58" s="8" t="s">
+      <c r="B58" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="8" t="s">
         <v>219</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="9" t="s">
         <v>220</v>
       </c>
-      <c r="E58" s="7" t="s">
+      <c r="E58" s="13" t="s">
         <v>221</v>
       </c>
-      <c r="F58" s="7" t="s">
+      <c r="F58" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="G58" s="7" t="s">
+      <c r="G58" s="13" t="s">
         <v>223</v>
       </c>
     </row>
@@ -6211,28 +5942,28 @@
       <c r="A59" s="2">
         <v>58</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="C59" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E59" s="11" t="s">
+      <c r="E59" s="14" t="s">
         <v>225</v>
       </c>
-      <c r="F59" s="7"/>
-      <c r="G59" s="7" t="s">
+      <c r="F59" s="13"/>
+      <c r="G59" s="13" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" ht="13" spans="1:7">
       <c r="A60" s="2">
         <v>59</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="7" t="s">
         <v>227</v>
       </c>
       <c r="C60" s="6" t="s">
@@ -6241,7 +5972,7 @@
       <c r="D60" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E60" s="7" t="s">
+      <c r="E60" s="13" t="s">
         <v>228</v>
       </c>
       <c r="F60" s="6" t="s">
@@ -6249,95 +5980,95 @@
       </c>
       <c r="G60" s="6"/>
     </row>
-    <row r="61" ht="185.25" spans="1:7">
+    <row r="61" ht="174" spans="1:7">
       <c r="A61" s="2">
         <v>60</v>
       </c>
-      <c r="B61" s="8" t="s">
+      <c r="B61" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="C61" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E61" s="11" t="s">
+      <c r="E61" s="14" t="s">
         <v>231</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="F61" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="G61" s="13" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="62" ht="156.75" spans="1:7">
+    <row r="62" ht="137" spans="1:7">
       <c r="A62" s="2">
         <v>61</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="C62" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="11" t="s">
+      <c r="E62" s="14" t="s">
         <v>235</v>
       </c>
-      <c r="F62" s="7" t="s">
+      <c r="F62" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="G62" s="7" t="s">
+      <c r="G62" s="13" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="63" ht="156.75" spans="1:7">
+    <row r="63" ht="137" spans="1:7">
       <c r="A63" s="2">
         <v>62</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="C63" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D63" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E63" s="11" t="s">
+      <c r="E63" s="14" t="s">
         <v>239</v>
       </c>
-      <c r="F63" s="7" t="s">
+      <c r="F63" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G63" s="7" t="s">
+      <c r="G63" s="13" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="64" ht="270.75" spans="1:7">
+    <row r="64" ht="236" spans="1:7">
       <c r="A64" s="2">
         <v>63</v>
       </c>
-      <c r="B64" s="8" t="s">
+      <c r="B64" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="C64" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D64" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E64" s="11" t="s">
+      <c r="E64" s="14" t="s">
         <v>243</v>
       </c>
-      <c r="F64" s="7" t="s">
+      <c r="F64" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="G64" s="7" t="s">
+      <c r="G64" s="13" t="s">
         <v>245</v>
       </c>
     </row>
@@ -6345,37 +6076,37 @@
       <c r="A65" s="2">
         <v>64</v>
       </c>
-      <c r="B65" s="8" t="s">
+      <c r="B65" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="C65" s="9" t="s">
+      <c r="C65" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F65" s="7"/>
+      <c r="F65" s="13"/>
       <c r="G65" s="6" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
+    <row r="66" ht="13" spans="1:7">
       <c r="A66" s="2">
         <v>65</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="C66" s="9" t="s">
+      <c r="C66" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="D66" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E66" s="7" t="s">
+      <c r="E66" s="13" t="s">
         <v>248</v>
       </c>
-      <c r="F66" s="7" t="s">
+      <c r="F66" s="13" t="s">
         <v>249</v>
       </c>
       <c r="G66" s="6" t="s">
@@ -6386,16 +6117,16 @@
       <c r="A67" s="2">
         <v>66</v>
       </c>
-      <c r="B67" s="8" t="s">
+      <c r="B67" s="7" t="s">
         <v>250</v>
       </c>
-      <c r="C67" s="9" t="s">
+      <c r="C67" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="D67" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F67" s="7"/>
+      <c r="F67" s="13"/>
       <c r="G67" s="6" t="s">
         <v>203</v>
       </c>
@@ -6404,16 +6135,16 @@
       <c r="A68" s="2">
         <v>67</v>
       </c>
-      <c r="B68" s="8" t="s">
+      <c r="B68" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="C68" s="9" t="s">
+      <c r="C68" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D68" s="10" t="s">
+      <c r="D68" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F68" s="7"/>
+      <c r="F68" s="13"/>
       <c r="G68" s="6" t="s">
         <v>205</v>
       </c>
@@ -6422,37 +6153,37 @@
       <c r="A69" s="2">
         <v>68</v>
       </c>
-      <c r="B69" s="8" t="s">
+      <c r="B69" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="C69" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="D69" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F69" s="7"/>
+      <c r="F69" s="13"/>
       <c r="G69" s="6" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="70" ht="28.5" spans="1:7">
+    <row r="70" ht="25" spans="1:7">
       <c r="A70" s="2">
         <v>69</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="C70" s="9" t="s">
+      <c r="C70" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D70" s="10" t="s">
+      <c r="D70" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="E70" s="11" t="s">
+      <c r="E70" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="F70" s="7" t="s">
+      <c r="F70" s="13" t="s">
         <v>255</v>
       </c>
       <c r="G70" s="6" t="s">
@@ -6463,16 +6194,16 @@
       <c r="A71" s="2">
         <v>70</v>
       </c>
-      <c r="B71" s="8" t="s">
+      <c r="B71" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="C71" s="9" t="s">
+      <c r="C71" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="D71" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F71" s="7"/>
+      <c r="F71" s="13"/>
       <c r="G71" s="6" t="s">
         <v>203</v>
       </c>
@@ -6481,16 +6212,16 @@
       <c r="A72" s="2">
         <v>71</v>
       </c>
-      <c r="B72" s="8" t="s">
+      <c r="B72" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="D72" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="F72" s="7"/>
+      <c r="F72" s="13"/>
       <c r="G72" s="6" t="s">
         <v>205</v>
       </c>
@@ -6499,37 +6230,37 @@
       <c r="A73" s="2">
         <v>72</v>
       </c>
-      <c r="B73" s="8" t="s">
+      <c r="B73" s="7" t="s">
         <v>258</v>
       </c>
-      <c r="C73" s="9" t="s">
+      <c r="C73" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D73" s="10" t="s">
+      <c r="D73" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F73" s="7"/>
+      <c r="F73" s="13"/>
       <c r="G73" s="6" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="74" ht="28.5" spans="1:7">
+    <row r="74" ht="25" spans="1:7">
       <c r="A74" s="2">
         <v>73</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="C74" s="9" t="s">
+      <c r="C74" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D74" s="10" t="s">
+      <c r="D74" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E74" s="7" t="s">
+      <c r="E74" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="F74" s="7" t="s">
+      <c r="F74" s="13" t="s">
         <v>261</v>
       </c>
       <c r="G74" s="6" t="s">
@@ -6540,16 +6271,16 @@
       <c r="A75" s="2">
         <v>74</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B75" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C75" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D75" s="10" t="s">
+      <c r="D75" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F75" s="7"/>
+      <c r="F75" s="13"/>
       <c r="G75" s="6" t="s">
         <v>171</v>
       </c>
@@ -6558,16 +6289,16 @@
       <c r="A76" s="2">
         <v>75</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="C76" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="D76" s="10" t="s">
+      <c r="D76" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F76" s="7"/>
+      <c r="F76" s="13"/>
       <c r="G76" s="6" t="s">
         <v>173</v>
       </c>
@@ -6576,37 +6307,37 @@
       <c r="A77" s="2">
         <v>76</v>
       </c>
-      <c r="B77" s="8" t="s">
+      <c r="B77" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="C77" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D77" s="10" t="s">
+      <c r="D77" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F77" s="7"/>
+      <c r="F77" s="13"/>
       <c r="G77" s="6" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="78" ht="28.5" spans="1:7">
+    <row r="78" ht="25" spans="1:7">
       <c r="A78" s="2">
         <v>77</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="C78" s="9" t="s">
+      <c r="C78" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D78" s="10" t="s">
+      <c r="D78" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="E78" s="11" t="s">
+      <c r="E78" s="14" t="s">
         <v>266</v>
       </c>
-      <c r="F78" s="7" t="s">
+      <c r="F78" s="13" t="s">
         <v>267</v>
       </c>
       <c r="G78" s="6" t="s">
@@ -6617,16 +6348,16 @@
       <c r="A79" s="2">
         <v>78</v>
       </c>
-      <c r="B79" s="8" t="s">
+      <c r="B79" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="C79" s="9" t="s">
+      <c r="C79" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D79" s="10" t="s">
+      <c r="D79" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F79" s="7"/>
+      <c r="F79" s="13"/>
       <c r="G79" s="6" t="s">
         <v>203</v>
       </c>
@@ -6635,16 +6366,16 @@
       <c r="A80" s="2">
         <v>79</v>
       </c>
-      <c r="B80" s="8" t="s">
+      <c r="B80" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="C80" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D80" s="10" t="s">
+      <c r="D80" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="F80" s="7"/>
+      <c r="F80" s="13"/>
       <c r="G80" s="6" t="s">
         <v>205</v>
       </c>
@@ -6654,9 +6385,8 @@
     <sortState ref="A1:H80">
       <sortCondition ref="A1"/>
     </sortState>
-    <extLst/>
   </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
